--- a/data/SJV Portfolio - Amplify Bioenergy Buildout 2.1.2024.xlsx
+++ b/data/SJV Portfolio - Amplify Bioenergy Buildout 2.1.2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB4BC34-8A06-E449-B196-6AA1BBD148E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3497E7C-2771-6A4C-842E-3C62580096FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="104">
   <si>
     <t>Solar</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>This portfolio uses half of the available biomass, split out across the different pathways to amplify the bioenergy production. The rest of the portfolio is aligned with the "proportional" effort</t>
+  </si>
+  <si>
+    <t>Animal Fat</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA35989-F8F5-C645-8F8C-CB2D79A95BD0}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="133" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="133" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1809,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225537EC-F8DB-7B4E-B90C-2D6AA935C6A7}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA2:AA9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3780,8 +3783,8 @@
       <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
-        <v>52</v>
+      <c r="B20" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>

--- a/data/SJV Portfolio - Amplify Bioenergy Buildout 2.1.2024.xlsx
+++ b/data/SJV Portfolio - Amplify Bioenergy Buildout 2.1.2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3497E7C-2771-6A4C-842E-3C62580096FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D1216-6D46-1349-9230-58B4FEB33F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="2520" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_input" sheetId="1" r:id="rId1"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA35989-F8F5-C645-8F8C-CB2D79A95BD0}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="25">
-        <v>0.14025000000000001</v>
+        <v>0.21037500000000003</v>
       </c>
       <c r="D12" s="14">
         <v>0.02</v>
@@ -1185,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="25">
-        <v>2.3100000000000002E-2</v>
+        <v>3.465E-2</v>
       </c>
       <c r="D13" s="13">
         <v>0.02</v>
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="25">
-        <v>9.9000000000000005E-2</v>
+        <v>0.14850000000000002</v>
       </c>
       <c r="D14" s="13"/>
     </row>
@@ -1217,7 +1217,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="25">
-        <v>3.3000000000000004E-3</v>
+        <v>4.9500000000000004E-3</v>
       </c>
       <c r="D15" s="14"/>
     </row>
@@ -1271,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="26">
-        <v>107884.61538461539</v>
+        <v>161826.92307692309</v>
       </c>
       <c r="D18" s="16">
         <v>70000</v>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="26">
-        <v>17769.230769230773</v>
+        <v>26653.84615384616</v>
       </c>
       <c r="D19" s="16">
         <v>70000</v>
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="26">
-        <v>51155.015197568391</v>
+        <v>76732.522796352583</v>
       </c>
       <c r="D20" s="16"/>
     </row>
@@ -1323,7 +1323,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="26">
-        <v>3310.0303951367782</v>
+        <v>4965.0455927051671</v>
       </c>
       <c r="D21" s="16"/>
     </row>
@@ -1335,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="11">
-        <v>4.95</v>
+        <v>7.4250000000000007</v>
       </c>
       <c r="D22" s="13">
         <v>3</v>
@@ -1355,7 +1355,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="11">
-        <v>0.19800000000000001</v>
+        <v>0.29700000000000004</v>
       </c>
       <c r="D23" s="13">
         <v>3</v>
@@ -1375,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="11">
-        <v>79.2</v>
+        <v>118.80000000000001</v>
       </c>
       <c r="D24" s="13">
         <v>50</v>
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="11">
-        <v>13.200000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="D25" s="13">
         <v>50</v>
@@ -1415,7 +1415,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="11">
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
       <c r="D26" s="13">
         <v>5</v>
@@ -1532,8 +1532,8 @@
         <v>0.28050000000000003</v>
       </c>
       <c r="D42">
-        <f>0.5*C42</f>
-        <v>0.14025000000000001</v>
+        <f>0.75*C42</f>
+        <v>0.21037500000000003</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1547,8 +1547,8 @@
         <v>4.6200000000000005E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:D45" si="1">0.5*C43</f>
-        <v>2.3100000000000002E-2</v>
+        <f t="shared" ref="D43:D45" si="1">0.75*C43</f>
+        <v>3.465E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>9.9000000000000005E-2</v>
+        <v>0.14850000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>3.3000000000000004E-3</v>
+        <v>4.9500000000000004E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1614,8 +1614,8 @@
         <v>215769.23076923078</v>
       </c>
       <c r="D48">
-        <f>0.5*C48</f>
-        <v>107884.61538461539</v>
+        <f>0.75*C48</f>
+        <v>161826.92307692309</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1629,8 +1629,8 @@
         <v>35538.461538461546</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D55" si="2">0.5*C49</f>
-        <v>17769.230769230773</v>
+        <f t="shared" ref="D49:D56" si="2">0.75*C49</f>
+        <v>26653.84615384616</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>51155.015197568391</v>
+        <v>76732.522796352583</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>3310.0303951367782</v>
+        <v>4965.0455927051671</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>4.95</v>
+        <v>7.4250000000000007</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>0.19800000000000001</v>
+        <v>0.29700000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>79.2</v>
+        <v>118.80000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>13.200000000000001</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1734,8 +1734,8 @@
         <v>13</v>
       </c>
       <c r="D56">
-        <f>0.5*C56</f>
-        <v>6.5</v>
+        <f t="shared" si="2"/>
+        <v>9.75</v>
       </c>
     </row>
   </sheetData>
@@ -1812,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225537EC-F8DB-7B4E-B90C-2D6AA935C6A7}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2344,87 +2344,87 @@
       </c>
       <c r="G6" s="18">
         <f t="shared" si="1"/>
-        <v>6.6785714285714288</v>
+        <v>10.017857142857144</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>13.357142857142858</v>
+        <v>20.035714285714288</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>20.035714285714285</v>
+        <v>30.053571428571431</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>26.714285714285715</v>
+        <v>40.071428571428577</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>33.392857142857146</v>
+        <v>50.089285714285722</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>40.071428571428577</v>
+        <v>60.107142857142868</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>46.750000000000007</v>
+        <v>70.125000000000014</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>53.428571428571438</v>
+        <v>80.142857142857153</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>60.107142857142868</v>
+        <v>90.160714285714292</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>66.785714285714292</v>
+        <v>100.17857142857143</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>73.464285714285722</v>
+        <v>110.19642857142857</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>80.142857142857153</v>
+        <v>120.21428571428571</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>86.821428571428584</v>
+        <v>130.23214285714286</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>93.500000000000014</v>
+        <v>140.25</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>100.17857142857144</v>
+        <v>150.26785714285714</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>106.85714285714288</v>
+        <v>160.28571428571428</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>113.53571428571431</v>
+        <v>170.30357142857142</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>120.21428571428574</v>
+        <v>180.32142857142856</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>126.89285714285717</v>
+        <v>190.33928571428569</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>133.57142857142858</v>
+        <v>200.35714285714283</v>
       </c>
       <c r="AA6">
         <f>portfolio_input!C12*1000</f>
-        <v>140.25</v>
+        <v>210.37500000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -2448,87 +2448,87 @@
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>3.3000000000000003</v>
+        <v>4.9499999999999993</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>6.6</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>6.6</v>
+        <v>9.9</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>7.6999999999999993</v>
+        <v>11.55</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>8.7999999999999989</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>9.8999999999999986</v>
+        <v>14.850000000000001</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>10.999999999999998</v>
+        <v>16.5</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>12.099999999999998</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>13.199999999999998</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>14.299999999999997</v>
+        <v>21.449999999999996</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>15.399999999999997</v>
+        <v>23.099999999999994</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>16.499999999999996</v>
+        <v>24.749999999999993</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>17.599999999999998</v>
+        <v>26.399999999999991</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>18.7</v>
+        <v>28.04999999999999</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>19.8</v>
+        <v>29.699999999999989</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>20.900000000000002</v>
+        <v>31.349999999999987</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>22.000000000000004</v>
+        <v>32.999999999999986</v>
       </c>
       <c r="AA7">
         <f>portfolio_input!C13*1000</f>
-        <v>23.1</v>
+        <v>34.65</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -2552,87 +2552,87 @@
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
-        <v>4.7142857142857144</v>
+        <v>7.071428571428573</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>9.4285714285714288</v>
+        <v>14.142857142857146</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>14.142857142857142</v>
+        <v>21.214285714285719</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>18.857142857142858</v>
+        <v>28.285714285714292</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>23.571428571428573</v>
+        <v>35.357142857142861</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>28.285714285714288</v>
+        <v>42.428571428571431</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>49.5</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>37.714285714285715</v>
+        <v>56.571428571428569</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>42.428571428571431</v>
+        <v>63.642857142857139</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>47.142857142857146</v>
+        <v>70.714285714285708</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>51.857142857142861</v>
+        <v>77.785714285714278</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>56.571428571428577</v>
+        <v>84.857142857142847</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>61.285714285714292</v>
+        <v>91.928571428571416</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>98.999999999999986</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>70.714285714285708</v>
+        <v>106.07142857142856</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>75.428571428571416</v>
+        <v>113.14285714285712</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>80.142857142857125</v>
+        <v>120.21428571428569</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>84.857142857142833</v>
+        <v>127.28571428571426</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>89.571428571428541</v>
+        <v>134.35714285714283</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>94.285714285714249</v>
+        <v>141.42857142857142</v>
       </c>
       <c r="AA8">
         <f>portfolio_input!C14*1000</f>
-        <v>99</v>
+        <v>148.50000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -2656,87 +2656,87 @@
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
-        <v>0.15714285714285717</v>
+        <v>0.23571428571428571</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.31428571428571433</v>
+        <v>0.47142857142857142</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>0.47142857142857153</v>
+        <v>0.70714285714285707</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>0.62857142857142867</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>0.78571428571428581</v>
+        <v>1.1785714285714286</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>0.94285714285714295</v>
+        <v>1.4142857142857144</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>1.2571428571428573</v>
+        <v>1.8857142857142859</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>1.4142857142857146</v>
+        <v>2.1214285714285714</v>
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
-        <v>1.5714285714285718</v>
+        <v>2.3571428571428572</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>1.7285714285714291</v>
+        <v>2.592857142857143</v>
       </c>
       <c r="R9">
         <f t="shared" si="2"/>
-        <v>1.8857142857142863</v>
+        <v>2.8285714285714287</v>
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
-        <v>2.0428571428571436</v>
+        <v>3.0642857142857145</v>
       </c>
       <c r="T9">
         <f t="shared" si="2"/>
-        <v>2.2000000000000006</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>2.3571428571428577</v>
+        <v>3.535714285714286</v>
       </c>
       <c r="V9">
         <f t="shared" si="2"/>
-        <v>2.5142857142857147</v>
+        <v>3.7714285714285718</v>
       </c>
       <c r="W9">
         <f t="shared" si="2"/>
-        <v>2.6714285714285717</v>
+        <v>4.0071428571428571</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>2.8285714285714287</v>
+        <v>4.2428571428571429</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>2.9857142857142858</v>
+        <v>4.4785714285714286</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>3.1428571428571428</v>
+        <v>4.7142857142857144</v>
       </c>
       <c r="AA9">
         <f>portfolio_input!C15*1000</f>
-        <v>3.3000000000000003</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -2968,87 +2968,87 @@
       </c>
       <c r="G12" s="18">
         <f t="shared" si="5"/>
-        <v>5137.3626373626375</v>
+        <v>7706.0439560439572</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
-        <v>10274.725274725275</v>
+        <v>15412.087912087914</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>15412.087912087913</v>
+        <v>23118.131868131873</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>20549.45054945055</v>
+        <v>30824.175824175829</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>25686.81318681319</v>
+        <v>38530.219780219784</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>30824.175824175829</v>
+        <v>46236.26373626374</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>35961.538461538468</v>
+        <v>53942.307692307695</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>41098.901098901108</v>
+        <v>61648.351648351651</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>46236.263736263747</v>
+        <v>69354.395604395613</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>51373.626373626386</v>
+        <v>77060.439560439569</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>56510.989010989026</v>
+        <v>84766.483516483524</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
-        <v>61648.351648351665</v>
+        <v>92472.527472527479</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>66785.714285714304</v>
+        <v>100178.57142857143</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>71923.076923076937</v>
+        <v>107884.61538461539</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>77060.439560439569</v>
+        <v>115590.65934065935</v>
       </c>
       <c r="V12">
         <f t="shared" si="0"/>
-        <v>82197.802197802201</v>
+        <v>123296.7032967033</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
-        <v>87335.164835164833</v>
+        <v>131002.74725274726</v>
       </c>
       <c r="X12">
         <f t="shared" si="0"/>
-        <v>92472.527472527465</v>
+        <v>138708.79120879123</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
-        <v>97609.890109890097</v>
+        <v>146414.83516483518</v>
       </c>
       <c r="Z12">
         <f t="shared" si="0"/>
-        <v>102747.25274725273</v>
+        <v>154120.87912087914</v>
       </c>
       <c r="AA12" s="18">
         <f>portfolio_input!C18</f>
-        <v>107884.61538461539</v>
+        <v>161826.92307692309</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -3072,87 +3072,87 @@
       </c>
       <c r="G13" s="18">
         <f t="shared" si="5"/>
-        <v>846.1538461538463</v>
+        <v>1269.2307692307695</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>1692.3076923076926</v>
+        <v>2538.461538461539</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>2538.461538461539</v>
+        <v>3807.6923076923085</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>3384.6153846153852</v>
+        <v>5076.923076923078</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>4230.7692307692314</v>
+        <v>6346.1538461538476</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>5076.923076923078</v>
+        <v>7615.3846153846171</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>5923.0769230769247</v>
+        <v>8884.6153846153866</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>6769.2307692307713</v>
+        <v>10153.846153846156</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>7615.384615384618</v>
+        <v>11423.076923076926</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>8461.5384615384646</v>
+        <v>12692.307692307695</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>9307.6923076923104</v>
+        <v>13961.538461538465</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>10153.846153846156</v>
+        <v>15230.769230769234</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>11000.000000000002</v>
+        <v>16500.000000000004</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>11846.153846153848</v>
+        <v>17769.230769230773</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>12692.307692307693</v>
+        <v>19038.461538461543</v>
       </c>
       <c r="V13">
         <f t="shared" si="0"/>
-        <v>13538.461538461539</v>
+        <v>20307.692307692312</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
-        <v>14384.615384615385</v>
+        <v>21576.923076923082</v>
       </c>
       <c r="X13">
         <f t="shared" si="0"/>
-        <v>15230.76923076923</v>
+        <v>22846.153846153851</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>16076.923076923076</v>
+        <v>24115.384615384621</v>
       </c>
       <c r="Z13">
         <f t="shared" si="0"/>
-        <v>16923.076923076922</v>
+        <v>25384.61538461539</v>
       </c>
       <c r="AA13" s="18">
         <f>portfolio_input!C19</f>
-        <v>17769.230769230773</v>
+        <v>26653.84615384616</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -3176,87 +3176,87 @@
       </c>
       <c r="G14" s="18">
         <f t="shared" si="5"/>
-        <v>2435.9531046461138</v>
+        <v>3653.9296569691705</v>
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>4871.9062092922277</v>
+        <v>7307.8593139383411</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>7307.8593139383411</v>
+        <v>10961.788970907512</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>9743.8124185844554</v>
+        <v>14615.718627876682</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>12179.76552323057</v>
+        <v>18269.648284845855</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>14615.718627876684</v>
+        <v>21923.577941815027</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>17051.671732522798</v>
+        <v>25577.507598784199</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>19487.624837168911</v>
+        <v>29231.437255753372</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>21923.577941815023</v>
+        <v>32885.366912722544</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>24359.531046461136</v>
+        <v>36539.296569691716</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>26795.484151107248</v>
+        <v>40193.226226660889</v>
       </c>
       <c r="R14">
         <f t="shared" si="0"/>
-        <v>29231.437255753361</v>
+        <v>43847.155883630061</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
-        <v>31667.390360399473</v>
+        <v>47501.085540599233</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>34103.343465045589</v>
+        <v>51155.015197568406</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>36539.296569691702</v>
+        <v>54808.944854537578</v>
       </c>
       <c r="V14">
         <f t="shared" si="0"/>
-        <v>38975.249674337814</v>
+        <v>58462.87451150675</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
-        <v>41411.202778983927</v>
+        <v>62116.804168475923</v>
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>43847.155883630039</v>
+        <v>65770.733825445088</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
-        <v>46283.108988276152</v>
+        <v>69424.663482414253</v>
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
-        <v>48719.062092922264</v>
+        <v>73078.593139383418</v>
       </c>
       <c r="AA14" s="18">
         <f>portfolio_input!C20</f>
-        <v>51155.015197568391</v>
+        <v>76732.522796352583</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -3280,87 +3280,87 @@
       </c>
       <c r="G15" s="18">
         <f t="shared" si="4"/>
-        <v>157.62049500651324</v>
+        <v>236.43074250976986</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>315.24099001302648</v>
+        <v>472.86148501953971</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>472.86148501953971</v>
+        <v>709.29222752930957</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>630.48198002605295</v>
+        <v>945.72297003907943</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>788.10247503256619</v>
+        <v>1182.1537125488494</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>945.72297003907943</v>
+        <v>1418.5844550586194</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>1103.3434650455927</v>
+        <v>1655.0151975683893</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>1260.9639600521059</v>
+        <v>1891.4459400781593</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>1418.5844550586191</v>
+        <v>2127.8766825879293</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>1576.2049500651324</v>
+        <v>2364.3074250976993</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>1733.8254450716456</v>
+        <v>2600.7381676074692</v>
       </c>
       <c r="R15">
         <f t="shared" si="0"/>
-        <v>1891.4459400781589</v>
+        <v>2837.1689101172392</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>2049.0664350846719</v>
+        <v>3073.5996526270092</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>2206.6869300911849</v>
+        <v>3310.0303951367791</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>2364.3074250976979</v>
+        <v>3546.4611376465491</v>
       </c>
       <c r="V15">
         <f t="shared" si="0"/>
-        <v>2521.9279201042109</v>
+        <v>3782.8918801563191</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
-        <v>2679.5484151107239</v>
+        <v>4019.322622666089</v>
       </c>
       <c r="X15">
         <f t="shared" si="0"/>
-        <v>2837.1689101172369</v>
+        <v>4255.7533651758586</v>
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
-        <v>2994.7894051237499</v>
+        <v>4492.1841076856281</v>
       </c>
       <c r="Z15">
         <f t="shared" si="0"/>
-        <v>3152.4099001302629</v>
+        <v>4728.6148501953976</v>
       </c>
       <c r="AA15" s="18">
         <f>portfolio_input!C21</f>
-        <v>3310.0303951367782</v>
+        <v>4965.0455927051671</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -3384,87 +3384,87 @@
       </c>
       <c r="G16" s="18">
         <f t="shared" si="4"/>
-        <v>235.71428571428572</v>
+        <v>353.57142857142861</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:Z16" si="7">$AA16/21+G16</f>
-        <v>471.42857142857144</v>
+        <v>707.14285714285722</v>
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
-        <v>707.14285714285711</v>
+        <v>1060.7142857142858</v>
       </c>
       <c r="J16">
         <f t="shared" si="7"/>
-        <v>942.85714285714289</v>
+        <v>1414.2857142857144</v>
       </c>
       <c r="K16">
         <f t="shared" si="7"/>
-        <v>1178.5714285714287</v>
+        <v>1767.8571428571431</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1414.2857142857144</v>
+        <v>2121.4285714285716</v>
       </c>
       <c r="M16">
         <f t="shared" si="7"/>
-        <v>1650.0000000000002</v>
+        <v>2475</v>
       </c>
       <c r="N16">
         <f t="shared" si="7"/>
-        <v>1885.714285714286</v>
+        <v>2828.5714285714284</v>
       </c>
       <c r="O16">
         <f t="shared" si="7"/>
-        <v>2121.4285714285716</v>
+        <v>3182.1428571428569</v>
       </c>
       <c r="P16">
         <f t="shared" si="7"/>
-        <v>2357.1428571428573</v>
+        <v>3535.7142857142853</v>
       </c>
       <c r="Q16">
         <f t="shared" si="7"/>
-        <v>2592.8571428571431</v>
+        <v>3889.2857142857138</v>
       </c>
       <c r="R16">
         <f t="shared" si="7"/>
-        <v>2828.5714285714289</v>
+        <v>4242.8571428571422</v>
       </c>
       <c r="S16">
         <f t="shared" si="7"/>
-        <v>3064.2857142857147</v>
+        <v>4596.4285714285706</v>
       </c>
       <c r="T16">
         <f t="shared" si="7"/>
-        <v>3300.0000000000005</v>
+        <v>4949.9999999999991</v>
       </c>
       <c r="U16">
         <f t="shared" si="7"/>
-        <v>3535.7142857142862</v>
+        <v>5303.5714285714275</v>
       </c>
       <c r="V16">
         <f t="shared" si="7"/>
-        <v>3771.428571428572</v>
+        <v>5657.142857142856</v>
       </c>
       <c r="W16">
         <f t="shared" si="7"/>
-        <v>4007.1428571428578</v>
+        <v>6010.7142857142844</v>
       </c>
       <c r="X16">
         <f t="shared" si="7"/>
-        <v>4242.8571428571431</v>
+        <v>6364.2857142857129</v>
       </c>
       <c r="Y16">
         <f t="shared" si="7"/>
-        <v>4478.5714285714284</v>
+        <v>6717.8571428571413</v>
       </c>
       <c r="Z16">
         <f t="shared" si="7"/>
-        <v>4714.2857142857138</v>
+        <v>7071.4285714285697</v>
       </c>
       <c r="AA16" s="18">
         <f>portfolio_input!C22*1000</f>
-        <v>4950</v>
+        <v>7425.0000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -3488,87 +3488,87 @@
       </c>
       <c r="G17" s="18">
         <f t="shared" si="4"/>
-        <v>9.4285714285714288</v>
+        <v>14.142857142857146</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:Z17" si="8">$AA17/21+G17</f>
-        <v>18.857142857142858</v>
+        <v>28.285714285714292</v>
       </c>
       <c r="I17">
         <f t="shared" si="8"/>
-        <v>28.285714285714285</v>
+        <v>42.428571428571438</v>
       </c>
       <c r="J17">
         <f t="shared" si="8"/>
-        <v>37.714285714285715</v>
+        <v>56.571428571428584</v>
       </c>
       <c r="K17">
         <f t="shared" si="8"/>
-        <v>47.142857142857146</v>
+        <v>70.714285714285722</v>
       </c>
       <c r="L17">
         <f t="shared" si="8"/>
-        <v>56.571428571428577</v>
+        <v>84.857142857142861</v>
       </c>
       <c r="M17">
         <f t="shared" si="8"/>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <f t="shared" si="8"/>
-        <v>75.428571428571431</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="O17">
         <f t="shared" si="8"/>
-        <v>84.857142857142861</v>
+        <v>127.28571428571428</v>
       </c>
       <c r="P17">
         <f t="shared" si="8"/>
-        <v>94.285714285714292</v>
+        <v>141.42857142857142</v>
       </c>
       <c r="Q17">
         <f t="shared" si="8"/>
-        <v>103.71428571428572</v>
+        <v>155.57142857142856</v>
       </c>
       <c r="R17">
         <f t="shared" si="8"/>
-        <v>113.14285714285715</v>
+        <v>169.71428571428569</v>
       </c>
       <c r="S17">
         <f t="shared" si="8"/>
-        <v>122.57142857142858</v>
+        <v>183.85714285714283</v>
       </c>
       <c r="T17">
         <f t="shared" si="8"/>
-        <v>132</v>
+        <v>197.99999999999997</v>
       </c>
       <c r="U17">
         <f t="shared" si="8"/>
-        <v>141.42857142857142</v>
+        <v>212.14285714285711</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>150.85714285714283</v>
+        <v>226.28571428571425</v>
       </c>
       <c r="W17">
         <f t="shared" si="8"/>
-        <v>160.28571428571425</v>
+        <v>240.42857142857139</v>
       </c>
       <c r="X17">
         <f t="shared" si="8"/>
-        <v>169.71428571428567</v>
+        <v>254.57142857142853</v>
       </c>
       <c r="Y17">
         <f t="shared" si="8"/>
-        <v>179.14285714285708</v>
+        <v>268.71428571428567</v>
       </c>
       <c r="Z17">
         <f t="shared" si="8"/>
-        <v>188.5714285714285</v>
+        <v>282.85714285714283</v>
       </c>
       <c r="AA17" s="18">
         <f>portfolio_input!C23*1000</f>
-        <v>198</v>
+        <v>297.00000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
@@ -3592,87 +3592,87 @@
       </c>
       <c r="G18" s="18">
         <f t="shared" si="4"/>
-        <v>3.7714285714285714</v>
+        <v>5.6571428571428575</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18:Z18" si="9">$AA18/21+G18</f>
-        <v>7.5428571428571427</v>
+        <v>11.314285714285715</v>
       </c>
       <c r="I18">
         <f t="shared" si="9"/>
-        <v>11.314285714285713</v>
+        <v>16.971428571428572</v>
       </c>
       <c r="J18">
         <f t="shared" si="9"/>
-        <v>15.085714285714285</v>
+        <v>22.62857142857143</v>
       </c>
       <c r="K18">
         <f t="shared" si="9"/>
-        <v>18.857142857142858</v>
+        <v>28.285714285714288</v>
       </c>
       <c r="L18">
         <f t="shared" si="9"/>
-        <v>22.62857142857143</v>
+        <v>33.942857142857143</v>
       </c>
       <c r="M18">
         <f t="shared" si="9"/>
-        <v>26.400000000000002</v>
+        <v>39.6</v>
       </c>
       <c r="N18">
         <f t="shared" si="9"/>
-        <v>30.171428571428574</v>
+        <v>45.25714285714286</v>
       </c>
       <c r="O18">
         <f t="shared" si="9"/>
-        <v>33.942857142857143</v>
+        <v>50.914285714285718</v>
       </c>
       <c r="P18">
         <f t="shared" si="9"/>
-        <v>37.714285714285715</v>
+        <v>56.571428571428577</v>
       </c>
       <c r="Q18">
         <f t="shared" si="9"/>
-        <v>41.485714285714288</v>
+        <v>62.228571428571435</v>
       </c>
       <c r="R18">
         <f t="shared" si="9"/>
-        <v>45.25714285714286</v>
+        <v>67.885714285714286</v>
       </c>
       <c r="S18">
         <f t="shared" si="9"/>
-        <v>49.028571428571432</v>
+        <v>73.542857142857144</v>
       </c>
       <c r="T18">
         <f t="shared" si="9"/>
-        <v>52.800000000000004</v>
+        <v>79.2</v>
       </c>
       <c r="U18">
         <f t="shared" si="9"/>
-        <v>56.571428571428577</v>
+        <v>84.857142857142861</v>
       </c>
       <c r="V18">
         <f t="shared" si="9"/>
-        <v>60.342857142857149</v>
+        <v>90.51428571428572</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>64.114285714285714</v>
+        <v>96.171428571428578</v>
       </c>
       <c r="X18">
         <f t="shared" si="9"/>
-        <v>67.885714285714286</v>
+        <v>101.82857142857144</v>
       </c>
       <c r="Y18">
         <f t="shared" si="9"/>
-        <v>71.657142857142858</v>
+        <v>107.48571428571429</v>
       </c>
       <c r="Z18">
         <f t="shared" si="9"/>
-        <v>75.428571428571431</v>
+        <v>113.14285714285715</v>
       </c>
       <c r="AA18">
         <f>portfolio_input!C24</f>
-        <v>79.2</v>
+        <v>118.80000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
@@ -3696,87 +3696,87 @@
       </c>
       <c r="G19" s="18">
         <f t="shared" si="4"/>
-        <v>0.62857142857142867</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19:Z19" si="10">$AA19/21+G19</f>
-        <v>1.2571428571428573</v>
+        <v>1.8857142857142857</v>
       </c>
       <c r="I19">
         <f t="shared" si="10"/>
-        <v>1.8857142857142861</v>
+        <v>2.8285714285714283</v>
       </c>
       <c r="J19">
         <f t="shared" si="10"/>
-        <v>2.5142857142857147</v>
+        <v>3.7714285714285714</v>
       </c>
       <c r="K19">
         <f t="shared" si="10"/>
-        <v>3.1428571428571432</v>
+        <v>4.7142857142857144</v>
       </c>
       <c r="L19">
         <f t="shared" si="10"/>
-        <v>3.7714285714285718</v>
+        <v>5.6571428571428575</v>
       </c>
       <c r="M19">
         <f t="shared" si="10"/>
-        <v>4.4000000000000004</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="N19">
         <f t="shared" si="10"/>
-        <v>5.0285714285714294</v>
+        <v>7.5428571428571436</v>
       </c>
       <c r="O19">
         <f t="shared" si="10"/>
-        <v>5.6571428571428584</v>
+        <v>8.4857142857142858</v>
       </c>
       <c r="P19">
         <f t="shared" si="10"/>
-        <v>6.2857142857142874</v>
+        <v>9.4285714285714288</v>
       </c>
       <c r="Q19">
         <f t="shared" si="10"/>
-        <v>6.9142857142857164</v>
+        <v>10.371428571428572</v>
       </c>
       <c r="R19">
         <f t="shared" si="10"/>
-        <v>7.5428571428571454</v>
+        <v>11.314285714285715</v>
       </c>
       <c r="S19">
         <f t="shared" si="10"/>
-        <v>8.1714285714285744</v>
+        <v>12.257142857142858</v>
       </c>
       <c r="T19">
         <f t="shared" si="10"/>
-        <v>8.8000000000000025</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="U19">
         <f t="shared" si="10"/>
-        <v>9.4285714285714306</v>
+        <v>14.142857142857144</v>
       </c>
       <c r="V19">
         <f t="shared" si="10"/>
-        <v>10.057142857142859</v>
+        <v>15.085714285714287</v>
       </c>
       <c r="W19">
         <f t="shared" si="10"/>
-        <v>10.685714285714287</v>
+        <v>16.028571428571428</v>
       </c>
       <c r="X19">
         <f t="shared" si="10"/>
-        <v>11.314285714285715</v>
+        <v>16.971428571428572</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>11.942857142857143</v>
+        <v>17.914285714285715</v>
       </c>
       <c r="Z19">
         <f t="shared" si="10"/>
-        <v>12.571428571428571</v>
+        <v>18.857142857142858</v>
       </c>
       <c r="AA19">
         <f>portfolio_input!C25</f>
-        <v>13.200000000000001</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -3800,87 +3800,87 @@
       </c>
       <c r="G20" s="18">
         <f t="shared" si="4"/>
-        <v>0.30952380952380953</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:Z20" si="11">$AA20/21+G20</f>
-        <v>0.61904761904761907</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I20">
         <f t="shared" si="11"/>
-        <v>0.9285714285714286</v>
+        <v>1.3928571428571428</v>
       </c>
       <c r="J20">
         <f t="shared" si="11"/>
-        <v>1.2380952380952381</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="K20">
         <f t="shared" si="11"/>
-        <v>1.5476190476190477</v>
+        <v>2.3214285714285716</v>
       </c>
       <c r="L20">
         <f t="shared" si="11"/>
-        <v>1.8571428571428572</v>
+        <v>2.785714285714286</v>
       </c>
       <c r="M20">
         <f t="shared" si="11"/>
-        <v>2.166666666666667</v>
+        <v>3.2500000000000004</v>
       </c>
       <c r="N20">
         <f t="shared" si="11"/>
-        <v>2.4761904761904763</v>
+        <v>3.7142857142857149</v>
       </c>
       <c r="O20">
         <f t="shared" si="11"/>
-        <v>2.7857142857142856</v>
+        <v>4.1785714285714288</v>
       </c>
       <c r="P20">
         <f t="shared" si="11"/>
-        <v>3.0952380952380949</v>
+        <v>4.6428571428571432</v>
       </c>
       <c r="Q20">
         <f t="shared" si="11"/>
-        <v>3.4047619047619042</v>
+        <v>5.1071428571428577</v>
       </c>
       <c r="R20">
         <f t="shared" si="11"/>
-        <v>3.7142857142857135</v>
+        <v>5.5714285714285721</v>
       </c>
       <c r="S20">
         <f t="shared" si="11"/>
-        <v>4.0238095238095228</v>
+        <v>6.0357142857142865</v>
       </c>
       <c r="T20">
         <f t="shared" si="11"/>
-        <v>4.3333333333333321</v>
+        <v>6.5000000000000009</v>
       </c>
       <c r="U20">
         <f t="shared" si="11"/>
-        <v>4.6428571428571415</v>
+        <v>6.9642857142857153</v>
       </c>
       <c r="V20">
         <f t="shared" si="11"/>
-        <v>4.9523809523809508</v>
+        <v>7.4285714285714297</v>
       </c>
       <c r="W20">
         <f t="shared" si="11"/>
-        <v>5.2619047619047601</v>
+        <v>7.8928571428571441</v>
       </c>
       <c r="X20">
         <f t="shared" si="11"/>
-        <v>5.5714285714285694</v>
+        <v>8.3571428571428577</v>
       </c>
       <c r="Y20">
         <f t="shared" si="11"/>
-        <v>5.8809523809523787</v>
+        <v>8.8214285714285712</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>6.190476190476188</v>
+        <v>9.2857142857142847</v>
       </c>
       <c r="AA20">
         <f>portfolio_input!C26</f>
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4480,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
